--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.61064433333333</v>
+        <v>45.36822333333333</v>
       </c>
       <c r="H2">
-        <v>121.831933</v>
+        <v>136.10467</v>
       </c>
       <c r="I2">
-        <v>0.9365419382944963</v>
+        <v>0.9399475154355185</v>
       </c>
       <c r="J2">
-        <v>0.9365419382944962</v>
+        <v>0.9399475154355185</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.5813823333333</v>
+        <v>186.2750726666667</v>
       </c>
       <c r="N2">
-        <v>703.744147</v>
+        <v>558.8252179999999</v>
       </c>
       <c r="O2">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="P2">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="Q2">
-        <v>9526.501085160682</v>
+        <v>8450.969098174228</v>
       </c>
       <c r="R2">
-        <v>85738.50976644615</v>
+        <v>76058.72188356805</v>
       </c>
       <c r="S2">
-        <v>0.9161952002891849</v>
+        <v>0.9145155328529448</v>
       </c>
       <c r="T2">
-        <v>0.9161952002891848</v>
+        <v>0.9145155328529448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.61064433333333</v>
+        <v>45.36822333333333</v>
       </c>
       <c r="H3">
-        <v>121.831933</v>
+        <v>136.10467</v>
       </c>
       <c r="I3">
-        <v>0.9365419382944963</v>
+        <v>0.9399475154355185</v>
       </c>
       <c r="J3">
-        <v>0.9365419382944962</v>
+        <v>0.9399475154355185</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.331</v>
       </c>
       <c r="O3">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="P3">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="Q3">
-        <v>85.70199642477778</v>
+        <v>95.74207397444444</v>
       </c>
       <c r="R3">
-        <v>771.317967823</v>
+        <v>861.67866577</v>
       </c>
       <c r="S3">
-        <v>0.008242245193452144</v>
+        <v>0.010360659562239</v>
       </c>
       <c r="T3">
-        <v>0.008242245193452144</v>
+        <v>0.010360659562239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.61064433333333</v>
+        <v>45.36822333333333</v>
       </c>
       <c r="H4">
-        <v>121.831933</v>
+        <v>136.10467</v>
       </c>
       <c r="I4">
-        <v>0.9365419382944963</v>
+        <v>0.9399475154355185</v>
       </c>
       <c r="J4">
-        <v>0.9365419382944962</v>
+        <v>0.9399475154355185</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.099218</v>
+        <v>3.069835</v>
       </c>
       <c r="N4">
-        <v>9.297654</v>
+        <v>9.209505</v>
       </c>
       <c r="O4">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="P4">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="Q4">
-        <v>125.8612399094647</v>
+        <v>139.2729598764833</v>
       </c>
       <c r="R4">
-        <v>1132.751159185182</v>
+        <v>1253.45663888835</v>
       </c>
       <c r="S4">
-        <v>0.01210449281185928</v>
+        <v>0.01507132302033453</v>
       </c>
       <c r="T4">
-        <v>0.01210449281185928</v>
+        <v>0.01507132302033453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.363648</v>
       </c>
       <c r="I5">
-        <v>0.05660556309845622</v>
+        <v>0.05085382185741109</v>
       </c>
       <c r="J5">
-        <v>0.05660556309845621</v>
+        <v>0.05085382185741109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>234.5813823333333</v>
+        <v>186.2750726666667</v>
       </c>
       <c r="N5">
-        <v>703.744147</v>
+        <v>558.8252179999999</v>
       </c>
       <c r="O5">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="P5">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="Q5">
-        <v>575.7915756186951</v>
+        <v>457.2213554305848</v>
       </c>
       <c r="R5">
-        <v>5182.124180568257</v>
+        <v>4114.992198875263</v>
       </c>
       <c r="S5">
-        <v>0.0553757852156795</v>
+        <v>0.04947787959415001</v>
       </c>
       <c r="T5">
-        <v>0.05537578521567949</v>
+        <v>0.04947787959415001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.363648</v>
       </c>
       <c r="I6">
-        <v>0.05660556309845622</v>
+        <v>0.05085382185741109</v>
       </c>
       <c r="J6">
-        <v>0.05660556309845621</v>
+        <v>0.05085382185741109</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>6.331</v>
       </c>
       <c r="O6">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="P6">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="Q6">
-        <v>5.179917276444445</v>
+        <v>5.179917276444443</v>
       </c>
       <c r="R6">
-        <v>46.619255488</v>
+        <v>46.61925548799999</v>
       </c>
       <c r="S6">
-        <v>0.0004981698216531908</v>
+        <v>0.0005605410164409648</v>
       </c>
       <c r="T6">
-        <v>0.0004981698216531907</v>
+        <v>0.0005605410164409648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.363648</v>
       </c>
       <c r="I7">
-        <v>0.05660556309845622</v>
+        <v>0.05085382185741109</v>
       </c>
       <c r="J7">
-        <v>0.05660556309845621</v>
+        <v>0.05085382185741109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.099218</v>
+        <v>3.069835</v>
       </c>
       <c r="N7">
-        <v>9.297654</v>
+        <v>9.209505</v>
       </c>
       <c r="O7">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="P7">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="Q7">
-        <v>7.607183475754667</v>
+        <v>7.535061452693332</v>
       </c>
       <c r="R7">
-        <v>68.464651281792</v>
+        <v>67.81555307424</v>
       </c>
       <c r="S7">
-        <v>0.0007316080611235313</v>
+        <v>0.0008154012468201149</v>
       </c>
       <c r="T7">
-        <v>0.0007316080611235312</v>
+        <v>0.0008154012468201149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2971403333333333</v>
+        <v>0.4439896666666667</v>
       </c>
       <c r="H8">
-        <v>0.891421</v>
+        <v>1.331969</v>
       </c>
       <c r="I8">
-        <v>0.006852498607047613</v>
+        <v>0.009198662707070463</v>
       </c>
       <c r="J8">
-        <v>0.006852498607047612</v>
+        <v>0.009198662707070463</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>234.5813823333333</v>
+        <v>186.2750726666667</v>
       </c>
       <c r="N8">
-        <v>703.744147</v>
+        <v>558.8252179999999</v>
       </c>
       <c r="O8">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="P8">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="Q8">
-        <v>69.70359014032077</v>
+        <v>82.70420742158244</v>
       </c>
       <c r="R8">
-        <v>627.3323112628871</v>
+        <v>744.3378667942419</v>
       </c>
       <c r="S8">
-        <v>0.006703625408594522</v>
+        <v>0.008949776225743056</v>
       </c>
       <c r="T8">
-        <v>0.006703625408594521</v>
+        <v>0.008949776225743056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2971403333333333</v>
+        <v>0.4439896666666667</v>
       </c>
       <c r="H9">
-        <v>0.891421</v>
+        <v>1.331969</v>
       </c>
       <c r="I9">
-        <v>0.006852498607047613</v>
+        <v>0.009198662707070463</v>
       </c>
       <c r="J9">
-        <v>0.006852498607047612</v>
+        <v>0.009198662707070463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.331</v>
       </c>
       <c r="O9">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="P9">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="Q9">
-        <v>0.6270651501111111</v>
+        <v>0.9369661932222222</v>
       </c>
       <c r="R9">
-        <v>5.643586351</v>
+        <v>8.432695739</v>
       </c>
       <c r="S9">
-        <v>6.030693490344854E-05</v>
+        <v>0.0001013931216060104</v>
       </c>
       <c r="T9">
-        <v>6.030693490344853E-05</v>
+        <v>0.0001013931216060104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2971403333333333</v>
+        <v>0.4439896666666667</v>
       </c>
       <c r="H10">
-        <v>0.891421</v>
+        <v>1.331969</v>
       </c>
       <c r="I10">
-        <v>0.006852498607047613</v>
+        <v>0.009198662707070463</v>
       </c>
       <c r="J10">
-        <v>0.006852498607047612</v>
+        <v>0.009198662707070463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.099218</v>
+        <v>3.069835</v>
       </c>
       <c r="N10">
-        <v>9.297654</v>
+        <v>9.209505</v>
       </c>
       <c r="O10">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="P10">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="Q10">
-        <v>0.9209026695926666</v>
+        <v>1.362975018371667</v>
       </c>
       <c r="R10">
-        <v>8.288124026334</v>
+        <v>12.266775165345</v>
       </c>
       <c r="S10">
-        <v>8.85662635496427E-05</v>
+        <v>0.0001474933597213964</v>
       </c>
       <c r="T10">
-        <v>8.856626354964269E-05</v>
+        <v>0.0001474933597213964</v>
       </c>
     </row>
   </sheetData>
